--- a/static/excels/(열려라국회) 20대 국회 본회의 출석부.xlsx
+++ b/static/excels/(열려라국회) 20대 국회 본회의 출석부.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College_Data\2-1_semester\OpenSource_basic_project\Team Project\Project Folder\myproject\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91DAA2C-5427-4D2F-A50E-D18EB547CEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D4812-3745-4219-9C78-1159A230504B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20대 국회 본회의 출석(20200317기준)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="695">
   <si>
     <t>20대 국회 본회의 출석부</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>서청원</t>
-  </si>
-  <si>
-    <t>자유공화당</t>
   </si>
   <si>
     <t>경기 화성시갑</t>
@@ -2245,6 +2242,62 @@
     <t>비례대표</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
+  <si>
+    <t>무소속</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>새누리당</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민의힘</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래한국당</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>민생당</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>더불어민주당</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리공화당</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>진보당</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민의당</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래통합당</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2253,7 +2306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2391,6 +2444,12 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -2618,7 +2677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2753,6 +2812,8 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3110,8 +3171,8 @@
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="4" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3217,16 +3278,16 @@
     </row>
     <row r="5" spans="1:12" ht="13.2">
       <c r="A5" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C5" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>125</v>
-      </c>
       <c r="D5" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5">
@@ -3251,19 +3312,19 @@
     </row>
     <row r="6" spans="1:12" ht="13.2">
       <c r="A6" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>498</v>
-      </c>
       <c r="D6" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>161</v>
@@ -3287,19 +3348,19 @@
     </row>
     <row r="7" spans="1:12" ht="13.2">
       <c r="A7" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>245</v>
-      </c>
       <c r="D7" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>161</v>
@@ -3323,19 +3384,19 @@
     </row>
     <row r="8" spans="1:12" ht="13.2">
       <c r="A8" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>80</v>
-      </c>
       <c r="D8" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>161</v>
@@ -3359,19 +3420,19 @@
     </row>
     <row r="9" spans="1:12" ht="13.2">
       <c r="A9" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="D9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="F9">
         <v>161</v>
@@ -3395,19 +3456,19 @@
     </row>
     <row r="10" spans="1:12" ht="13.2">
       <c r="A10" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="D10" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F10">
         <v>161</v>
@@ -3431,19 +3492,19 @@
     </row>
     <row r="11" spans="1:12" ht="13.2">
       <c r="A11" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>470</v>
-      </c>
       <c r="D11" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>161</v>
@@ -3467,19 +3528,19 @@
     </row>
     <row r="12" spans="1:12" ht="13.2">
       <c r="A12" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>313</v>
-      </c>
       <c r="D12" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>161</v>
@@ -3503,19 +3564,19 @@
     </row>
     <row r="13" spans="1:12" ht="13.2">
       <c r="A13" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>500</v>
-      </c>
       <c r="D13" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>161</v>
@@ -3537,21 +3598,21 @@
       </c>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="13.2">
+    <row r="14" spans="1:12" ht="15.6">
       <c r="A14" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>158</v>
-      </c>
       <c r="D14" s="32" t="s">
-        <v>32</v>
+        <v>685</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14">
         <v>161</v>
@@ -3573,21 +3634,21 @@
       </c>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" ht="13.2">
+    <row r="15" spans="1:12" ht="15.6">
       <c r="A15" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>686</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>270</v>
-      </c>
       <c r="D15" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>161</v>
@@ -3611,19 +3672,19 @@
     </row>
     <row r="16" spans="1:12" ht="13.2">
       <c r="A16" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="E16" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F16">
         <v>161</v>
@@ -3645,21 +3706,21 @@
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="1:12" ht="13.2">
+    <row r="17" spans="1:12" ht="15.6">
       <c r="A17" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>144</v>
-      </c>
       <c r="D17" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17">
         <v>161</v>
@@ -3683,19 +3744,19 @@
     </row>
     <row r="18" spans="1:12" ht="13.2">
       <c r="A18" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="D18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>181</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>182</v>
       </c>
       <c r="F18">
         <v>161</v>
@@ -3719,19 +3780,19 @@
     </row>
     <row r="19" spans="1:12" ht="13.2">
       <c r="A19" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>542</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>543</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>161</v>
@@ -3755,19 +3816,19 @@
     </row>
     <row r="20" spans="1:12" ht="13.2">
       <c r="A20" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>472</v>
-      </c>
       <c r="D20" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F20">
         <v>161</v>
@@ -3791,19 +3852,19 @@
     </row>
     <row r="21" spans="1:12" ht="13.2">
       <c r="A21" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>545</v>
-      </c>
       <c r="D21" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>161</v>
@@ -3827,19 +3888,19 @@
     </row>
     <row r="22" spans="1:12" ht="13.2">
       <c r="A22" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>188</v>
-      </c>
       <c r="D22" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>161</v>
@@ -3863,19 +3924,19 @@
     </row>
     <row r="23" spans="1:12" ht="13.2">
       <c r="A23" s="30" t="s">
+        <v>545</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>547</v>
-      </c>
       <c r="D23" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>161</v>
@@ -3899,19 +3960,19 @@
     </row>
     <row r="24" spans="1:12" ht="13.2">
       <c r="A24" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>204</v>
-      </c>
       <c r="D24" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>161</v>
@@ -3935,19 +3996,19 @@
     </row>
     <row r="25" spans="1:12" ht="13.2">
       <c r="A25" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>76</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25">
         <v>161</v>
@@ -3969,21 +4030,21 @@
       </c>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" ht="13.2">
+    <row r="26" spans="1:12" ht="15.6">
       <c r="A26" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>406</v>
-      </c>
       <c r="D26" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>161</v>
@@ -4005,21 +4066,21 @@
       </c>
       <c r="L26" s="35"/>
     </row>
-    <row r="27" spans="1:12" ht="13.2">
+    <row r="27" spans="1:12" ht="15.6">
       <c r="A27" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="B27" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="D27" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E27" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27">
         <v>161</v>
@@ -4043,19 +4104,19 @@
     </row>
     <row r="28" spans="1:12" ht="13.2">
       <c r="A28" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>248</v>
-      </c>
       <c r="D28" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28">
         <v>161</v>
@@ -4077,21 +4138,21 @@
       </c>
       <c r="L28" s="35"/>
     </row>
-    <row r="29" spans="1:12" ht="13.2">
+    <row r="29" spans="1:12" ht="15.6">
       <c r="A29" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>146</v>
-      </c>
       <c r="D29" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <v>161</v>
@@ -4115,19 +4176,19 @@
     </row>
     <row r="30" spans="1:12" ht="13.2">
       <c r="A30" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>376</v>
-      </c>
       <c r="D30" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30">
         <v>161</v>
@@ -4151,19 +4212,19 @@
     </row>
     <row r="31" spans="1:12" ht="13.2">
       <c r="A31" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="31" t="s">
+      <c r="D31" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>128</v>
       </c>
       <c r="F31">
         <v>161</v>
@@ -4187,19 +4248,19 @@
     </row>
     <row r="32" spans="1:12" ht="13.2">
       <c r="A32" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>317</v>
-      </c>
       <c r="D32" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32">
         <v>161</v>
@@ -4223,19 +4284,19 @@
     </row>
     <row r="33" spans="1:12" ht="13.2">
       <c r="A33" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="31" t="s">
+      <c r="D33" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>45</v>
-      </c>
       <c r="E33" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33">
         <v>161</v>
@@ -4259,19 +4320,19 @@
     </row>
     <row r="34" spans="1:12" ht="13.2">
       <c r="A34" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>548</v>
       </c>
-      <c r="B34" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>549</v>
-      </c>
       <c r="D34" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F34">
         <v>161</v>
@@ -4295,19 +4356,19 @@
     </row>
     <row r="35" spans="1:12" ht="13.2">
       <c r="A35" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>551</v>
-      </c>
       <c r="D35" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35">
         <v>161</v>
@@ -4331,19 +4392,19 @@
     </row>
     <row r="36" spans="1:12" ht="13.2">
       <c r="A36" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="B36" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>502</v>
-      </c>
       <c r="D36" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36">
         <v>161</v>
@@ -4367,19 +4428,19 @@
     </row>
     <row r="37" spans="1:12" ht="13.2">
       <c r="A37" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>553</v>
-      </c>
       <c r="D37" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37">
         <v>161</v>
@@ -4403,19 +4464,19 @@
     </row>
     <row r="38" spans="1:12" ht="13.2">
       <c r="A38" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>319</v>
-      </c>
       <c r="D38" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F38">
         <v>161</v>
@@ -4436,24 +4497,24 @@
         <v>0.05</v>
       </c>
       <c r="L38" s="35" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="13.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.6">
       <c r="A39" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>216</v>
-      </c>
       <c r="D39" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F39">
         <v>161</v>
@@ -4477,19 +4538,19 @@
     </row>
     <row r="40" spans="1:12" ht="13.2">
       <c r="A40" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>554</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>555</v>
-      </c>
       <c r="D40" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>161</v>
@@ -4511,21 +4572,21 @@
       </c>
       <c r="L40" s="35"/>
     </row>
-    <row r="41" spans="1:12" ht="13.2">
+    <row r="41" spans="1:12" ht="15.6">
       <c r="A41" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C41" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="31" t="s">
+      <c r="D41" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>98</v>
       </c>
       <c r="F41">
         <v>161</v>
@@ -4549,19 +4610,19 @@
     </row>
     <row r="42" spans="1:12" ht="13.2">
       <c r="A42" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>322</v>
-      </c>
       <c r="D42" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F42">
         <v>161</v>
@@ -4585,19 +4646,19 @@
     </row>
     <row r="43" spans="1:12" ht="13.2">
       <c r="A43" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>250</v>
-      </c>
       <c r="D43" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43">
         <v>161</v>
@@ -4619,21 +4680,21 @@
       </c>
       <c r="L43" s="35"/>
     </row>
-    <row r="44" spans="1:12" ht="13.2">
+    <row r="44" spans="1:12" ht="15.6">
       <c r="A44" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="B44" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>324</v>
-      </c>
       <c r="D44" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F44">
         <v>161</v>
@@ -4657,19 +4718,19 @@
     </row>
     <row r="45" spans="1:12" ht="13.2">
       <c r="A45" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="31" t="s">
+      <c r="D45" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="32" t="s">
-        <v>54</v>
-      </c>
       <c r="E45" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45">
         <v>161</v>
@@ -4693,19 +4754,19 @@
     </row>
     <row r="46" spans="1:12" ht="13.2">
       <c r="A46" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>136</v>
-      </c>
       <c r="D46" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46">
         <v>161</v>
@@ -4729,19 +4790,19 @@
     </row>
     <row r="47" spans="1:12" ht="15.6">
       <c r="A47" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D47" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F47">
         <v>161</v>
@@ -4765,19 +4826,19 @@
     </row>
     <row r="48" spans="1:12" ht="13.2">
       <c r="A48" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>444</v>
-      </c>
       <c r="D48" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48">
         <v>71</v>
@@ -4798,24 +4859,24 @@
         <v>0.03</v>
       </c>
       <c r="L48" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="13.2">
       <c r="A49" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>47</v>
-      </c>
       <c r="D49" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F49">
         <v>161</v>
@@ -4837,21 +4898,21 @@
       </c>
       <c r="L49" s="35"/>
     </row>
-    <row r="50" spans="1:12" ht="13.2">
+    <row r="50" spans="1:12" ht="15.6">
       <c r="A50" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="D50" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="E50" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F50">
         <v>161</v>
@@ -4873,21 +4934,21 @@
       </c>
       <c r="L50" s="35"/>
     </row>
-    <row r="51" spans="1:12" ht="13.2">
+    <row r="51" spans="1:12" ht="15.6">
       <c r="A51" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="B51" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>688</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="D51" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="E51" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F51">
         <v>161</v>
@@ -4911,19 +4972,19 @@
     </row>
     <row r="52" spans="1:12" ht="13.2">
       <c r="A52" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="D52" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F52">
         <v>161</v>
@@ -4947,19 +5008,19 @@
     </row>
     <row r="53" spans="1:12" ht="13.2">
       <c r="A53" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="B53" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>408</v>
-      </c>
       <c r="D53" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F53">
         <v>161</v>
@@ -4983,19 +5044,19 @@
     </row>
     <row r="54" spans="1:12" ht="13.2">
       <c r="A54" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>557</v>
-      </c>
       <c r="D54" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54">
         <v>161</v>
@@ -5019,19 +5080,19 @@
     </row>
     <row r="55" spans="1:12" ht="13.2">
       <c r="A55" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B55" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>272</v>
-      </c>
       <c r="D55" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55">
         <v>161</v>
@@ -5052,24 +5113,24 @@
         <v>0.06</v>
       </c>
       <c r="L55" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="13.2">
       <c r="A56" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="B56" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>504</v>
-      </c>
       <c r="D56" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F56">
         <v>161</v>
@@ -5093,19 +5154,19 @@
     </row>
     <row r="57" spans="1:12" ht="13.2">
       <c r="A57" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>42</v>
-      </c>
       <c r="D57" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F57">
         <v>161</v>
@@ -5129,19 +5190,19 @@
     </row>
     <row r="58" spans="1:12" ht="13.2">
       <c r="A58" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>100</v>
-      </c>
       <c r="D58" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58">
         <v>161</v>
@@ -5165,19 +5226,19 @@
     </row>
     <row r="59" spans="1:12" ht="13.2">
       <c r="A59" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="D59" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F59">
         <v>115</v>
@@ -5198,25 +5259,25 @@
         <v>0.2</v>
       </c>
       <c r="L59" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="13.2">
       <c r="A60" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>559</v>
-      </c>
       <c r="D60" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="31" t="s">
-        <v>33</v>
-      </c>
       <c r="F60">
         <v>161</v>
       </c>
@@ -5237,21 +5298,21 @@
       </c>
       <c r="L60" s="35"/>
     </row>
-    <row r="61" spans="1:12" ht="13.2">
+    <row r="61" spans="1:12" ht="15.6">
       <c r="A61" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C61" s="31" t="s">
         <v>274</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>275</v>
-      </c>
       <c r="D61" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61">
         <v>161</v>
@@ -5275,19 +5336,19 @@
     </row>
     <row r="62" spans="1:12" ht="13.2">
       <c r="A62" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="B62" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>303</v>
-      </c>
       <c r="D62" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62">
         <v>71</v>
@@ -5308,24 +5369,24 @@
         <v>0.06</v>
       </c>
       <c r="L62" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="13.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.6">
       <c r="A63" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C63" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>56</v>
-      </c>
       <c r="D63" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="F63">
         <v>161</v>
@@ -5349,19 +5410,19 @@
     </row>
     <row r="64" spans="1:12" ht="13.2">
       <c r="A64" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="C64" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="F64">
         <v>161</v>
@@ -5383,21 +5444,21 @@
       </c>
       <c r="L64" s="35"/>
     </row>
-    <row r="65" spans="1:12" ht="13.2">
+    <row r="65" spans="1:12" ht="15.6">
       <c r="A65" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="B65" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="C65" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="B65" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>506</v>
-      </c>
       <c r="D65" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F65">
         <v>161</v>
@@ -5419,18 +5480,18 @@
       </c>
       <c r="L65" s="35"/>
     </row>
-    <row r="66" spans="1:12" ht="13.2">
+    <row r="66" spans="1:12" ht="15.6">
       <c r="A66" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B66" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C66" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="D66" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E66" s="31"/>
       <c r="F66">
@@ -5455,19 +5516,19 @@
     </row>
     <row r="67" spans="1:12" ht="13.2">
       <c r="A67" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="B67" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>380</v>
-      </c>
       <c r="D67" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F67">
         <v>161</v>
@@ -5491,19 +5552,19 @@
     </row>
     <row r="68" spans="1:12" ht="13.2">
       <c r="A68" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="C68" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C68" s="31" t="s">
-        <v>383</v>
-      </c>
       <c r="D68" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F68">
         <v>161</v>
@@ -5527,19 +5588,19 @@
     </row>
     <row r="69" spans="1:12" ht="13.2">
       <c r="A69" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>85</v>
-      </c>
       <c r="D69" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69">
         <v>161</v>
@@ -5563,19 +5624,19 @@
     </row>
     <row r="70" spans="1:12" ht="13.2">
       <c r="A70" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>117</v>
-      </c>
       <c r="D70" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F70">
         <v>161</v>
@@ -5599,19 +5660,19 @@
     </row>
     <row r="71" spans="1:12" ht="13.2">
       <c r="A71" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>561</v>
-      </c>
       <c r="D71" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F71">
         <v>161</v>
@@ -5635,19 +5696,19 @@
     </row>
     <row r="72" spans="1:12" ht="13.2">
       <c r="A72" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>563</v>
-      </c>
       <c r="D72" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F72">
         <v>161</v>
@@ -5669,21 +5730,21 @@
       </c>
       <c r="L72" s="35"/>
     </row>
-    <row r="73" spans="1:12" ht="13.2">
+    <row r="73" spans="1:12" ht="15.6">
       <c r="A73" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>686</v>
+      </c>
+      <c r="C73" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="D73" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F73">
         <v>161</v>
@@ -5705,21 +5766,21 @@
       </c>
       <c r="L73" s="35"/>
     </row>
-    <row r="74" spans="1:12" ht="13.2">
+    <row r="74" spans="1:12" ht="15.6">
       <c r="A74" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>686</v>
+      </c>
+      <c r="C74" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>160</v>
-      </c>
       <c r="D74" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F74">
         <v>161</v>
@@ -5743,19 +5804,19 @@
     </row>
     <row r="75" spans="1:12" ht="13.2">
       <c r="A75" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="B75" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>446</v>
-      </c>
       <c r="D75" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F75">
         <v>161</v>
@@ -5779,19 +5840,19 @@
     </row>
     <row r="76" spans="1:12" ht="13.2">
       <c r="A76" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="B76" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>327</v>
-      </c>
       <c r="D76" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F76">
         <v>161</v>
@@ -5815,19 +5876,19 @@
     </row>
     <row r="77" spans="1:12" ht="13.2">
       <c r="A77" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="B77" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>508</v>
-      </c>
       <c r="D77" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F77">
         <v>161</v>
@@ -5851,19 +5912,19 @@
     </row>
     <row r="78" spans="1:12" ht="13.2">
       <c r="A78" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="31" t="s">
         <v>447</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>448</v>
       </c>
       <c r="F78">
         <v>161</v>
@@ -5887,19 +5948,19 @@
     </row>
     <row r="79" spans="1:12" ht="13.2">
       <c r="A79" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="C79" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="31" t="s">
-        <v>65</v>
-      </c>
       <c r="D79" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F79">
         <v>161</v>
@@ -5920,24 +5981,24 @@
         <v>0.19</v>
       </c>
       <c r="L79" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="13.2">
       <c r="A80" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="31" t="s">
         <v>384</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>385</v>
       </c>
       <c r="F80">
         <v>161</v>
@@ -5959,21 +6020,21 @@
       </c>
       <c r="L80" s="35"/>
     </row>
-    <row r="81" spans="1:12" ht="13.2">
+    <row r="81" spans="1:12" ht="15.6">
       <c r="A81" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C81" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>169</v>
-      </c>
       <c r="D81" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F81">
         <v>161</v>
@@ -5997,19 +6058,19 @@
     </row>
     <row r="82" spans="1:12" ht="13.2">
       <c r="A82" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="B82" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>510</v>
-      </c>
       <c r="D82" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F82">
         <v>161</v>
@@ -6033,19 +6094,19 @@
     </row>
     <row r="83" spans="1:12" ht="13.2">
       <c r="A83" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="B83" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>450</v>
-      </c>
       <c r="D83" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F83">
         <v>161</v>
@@ -6069,19 +6130,19 @@
     </row>
     <row r="84" spans="1:12" ht="13.2">
       <c r="A84" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="B84" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>423</v>
-      </c>
       <c r="D84" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F84">
         <v>161</v>
@@ -6102,24 +6163,24 @@
         <v>0.03</v>
       </c>
       <c r="L84" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="13.2">
       <c r="A85" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="B85" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>306</v>
-      </c>
       <c r="D85" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F85">
         <v>71</v>
@@ -6140,21 +6201,21 @@
         <v>0.06</v>
       </c>
       <c r="L85" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="13.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="15.6">
       <c r="A86" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="B86" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C86" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="D86" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E86" s="31"/>
       <c r="F86">
@@ -6179,19 +6240,19 @@
     </row>
     <row r="87" spans="1:12" ht="13.2">
       <c r="A87" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="31" t="s">
         <v>564</v>
       </c>
-      <c r="B87" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>565</v>
-      </c>
       <c r="D87" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F87">
         <v>161</v>
@@ -6215,19 +6276,19 @@
     </row>
     <row r="88" spans="1:12" ht="13.2">
       <c r="A88" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B88" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C88" s="31" t="s">
+      <c r="D88" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="31" t="s">
         <v>190</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E88" s="31" t="s">
-        <v>191</v>
       </c>
       <c r="F88">
         <v>161</v>
@@ -6249,21 +6310,21 @@
       </c>
       <c r="L88" s="35"/>
     </row>
-    <row r="89" spans="1:12" ht="13.2">
+    <row r="89" spans="1:12" ht="15.6">
       <c r="A89" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="C89" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="B89" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C89" s="31" t="s">
+      <c r="D89" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="31" t="s">
         <v>344</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="31" t="s">
-        <v>345</v>
       </c>
       <c r="F89">
         <v>161</v>
@@ -6287,19 +6348,19 @@
     </row>
     <row r="90" spans="1:12" ht="13.2">
       <c r="A90" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="B90" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>410</v>
-      </c>
       <c r="D90" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F90">
         <v>161</v>
@@ -6323,19 +6384,19 @@
     </row>
     <row r="91" spans="1:12" ht="13.2">
       <c r="A91" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="31" t="s">
         <v>566</v>
-      </c>
-      <c r="B91" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D91" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>567</v>
       </c>
       <c r="F91">
         <v>161</v>
@@ -6359,19 +6420,19 @@
     </row>
     <row r="92" spans="1:12" ht="13.2">
       <c r="A92" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="31" t="s">
         <v>568</v>
       </c>
-      <c r="B92" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>569</v>
-      </c>
       <c r="D92" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F92">
         <v>161</v>
@@ -6393,21 +6454,21 @@
       </c>
       <c r="L92" s="35"/>
     </row>
-    <row r="93" spans="1:12" ht="13.2">
+    <row r="93" spans="1:12" ht="15.6">
       <c r="A93" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B93" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C93" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="B93" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>329</v>
-      </c>
       <c r="D93" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F93">
         <v>161</v>
@@ -6429,21 +6490,21 @@
       </c>
       <c r="L93" s="35"/>
     </row>
-    <row r="94" spans="1:12" ht="13.2">
+    <row r="94" spans="1:12" ht="15.6">
       <c r="A94" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B94" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>193</v>
-      </c>
       <c r="D94" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F94">
         <v>161</v>
@@ -6465,21 +6526,21 @@
       </c>
       <c r="L94" s="35"/>
     </row>
-    <row r="95" spans="1:12" ht="13.2">
+    <row r="95" spans="1:12" ht="15.6">
       <c r="A95" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C95" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B95" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>87</v>
-      </c>
       <c r="D95" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F95">
         <v>161</v>
@@ -6503,19 +6564,19 @@
     </row>
     <row r="96" spans="1:12" ht="13.2">
       <c r="A96" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B96" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C96" s="31" t="s">
-        <v>89</v>
-      </c>
       <c r="D96" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F96">
         <v>161</v>
@@ -6539,19 +6600,19 @@
     </row>
     <row r="97" spans="1:12" ht="13.2">
       <c r="A97" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="B97" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>474</v>
-      </c>
       <c r="D97" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F97">
         <v>161</v>
@@ -6575,19 +6636,19 @@
     </row>
     <row r="98" spans="1:12" ht="13.2">
       <c r="A98" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C98" s="31" t="s">
         <v>511</v>
       </c>
-      <c r="B98" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>512</v>
-      </c>
       <c r="D98" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F98">
         <v>161</v>
@@ -6611,16 +6672,16 @@
     </row>
     <row r="99" spans="1:12" ht="13.2">
       <c r="A99" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E99" s="31"/>
       <c r="F99">
@@ -6643,21 +6704,21 @@
       </c>
       <c r="L99" s="35"/>
     </row>
-    <row r="100" spans="1:12" ht="13.2">
+    <row r="100" spans="1:12" ht="15.6">
       <c r="A100" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C100" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B100" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>196</v>
-      </c>
       <c r="D100" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F100">
         <v>161</v>
@@ -6681,19 +6742,19 @@
     </row>
     <row r="101" spans="1:12" ht="13.2">
       <c r="A101" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="B101" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>206</v>
-      </c>
       <c r="D101" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F101">
         <v>161</v>
@@ -6717,19 +6778,19 @@
     </row>
     <row r="102" spans="1:12" ht="13.2">
       <c r="A102" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="B102" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>476</v>
-      </c>
       <c r="D102" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="F102">
         <v>161</v>
@@ -6750,24 +6811,24 @@
         <v>0.01</v>
       </c>
       <c r="L102" s="35" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="13.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15.6">
       <c r="A103" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C103" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>208</v>
-      </c>
       <c r="D103" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F103">
         <v>161</v>
@@ -6791,19 +6852,19 @@
     </row>
     <row r="104" spans="1:12" ht="13.2">
       <c r="A104" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="B104" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>479</v>
-      </c>
       <c r="D104" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F104">
         <v>161</v>
@@ -6827,19 +6888,19 @@
     </row>
     <row r="105" spans="1:12" ht="13.2">
       <c r="A105" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="B105" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>571</v>
-      </c>
       <c r="D105" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F105">
         <v>161</v>
@@ -6863,19 +6924,19 @@
     </row>
     <row r="106" spans="1:12" ht="13.2">
       <c r="A106" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B106" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>70</v>
-      </c>
       <c r="D106" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F106">
         <v>161</v>
@@ -6899,19 +6960,19 @@
     </row>
     <row r="107" spans="1:12" ht="13.2">
       <c r="A107" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B107" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>277</v>
-      </c>
       <c r="D107" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F107">
         <v>161</v>
@@ -6935,19 +6996,19 @@
     </row>
     <row r="108" spans="1:12" ht="13.2">
       <c r="A108" s="30" t="s">
+        <v>571</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" s="31" t="s">
         <v>572</v>
       </c>
-      <c r="B108" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" s="31" t="s">
-        <v>573</v>
-      </c>
       <c r="D108" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F108">
         <v>161</v>
@@ -6971,19 +7032,19 @@
     </row>
     <row r="109" spans="1:12" ht="13.2">
       <c r="A109" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="B109" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="31" t="s">
-        <v>514</v>
-      </c>
       <c r="D109" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F109">
         <v>161</v>
@@ -7007,16 +7068,16 @@
     </row>
     <row r="110" spans="1:12" ht="13.2">
       <c r="A110" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="B110" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C110" s="31" t="s">
-        <v>347</v>
-      </c>
       <c r="D110" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E110" s="31"/>
       <c r="F110">
@@ -7041,16 +7102,16 @@
     </row>
     <row r="111" spans="1:12" ht="13.2">
       <c r="A111" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D111" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E111" s="31"/>
       <c r="F111">
@@ -7073,21 +7134,21 @@
       </c>
       <c r="L111" s="35"/>
     </row>
-    <row r="112" spans="1:12" ht="13.2">
+    <row r="112" spans="1:12" ht="15.6">
       <c r="A112" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="C112" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B112" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>279</v>
-      </c>
       <c r="D112" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112">
         <v>161</v>
@@ -7111,19 +7172,19 @@
     </row>
     <row r="113" spans="1:12" ht="13.2">
       <c r="A113" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113" s="31" t="s">
         <v>574</v>
       </c>
-      <c r="B113" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>575</v>
-      </c>
       <c r="D113" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F113">
         <v>161</v>
@@ -7147,19 +7208,19 @@
     </row>
     <row r="114" spans="1:12" ht="13.2">
       <c r="A114" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114" s="31" t="s">
         <v>576</v>
       </c>
-      <c r="B114" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C114" s="31" t="s">
-        <v>577</v>
-      </c>
       <c r="D114" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F114">
         <v>161</v>
@@ -7181,21 +7242,21 @@
       </c>
       <c r="L114" s="35"/>
     </row>
-    <row r="115" spans="1:12" ht="13.2">
+    <row r="115" spans="1:12" ht="15.6">
       <c r="A115" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C115" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="B115" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C115" s="31" t="s">
+      <c r="D115" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>223</v>
       </c>
       <c r="F115">
         <v>161</v>
@@ -7219,19 +7280,19 @@
     </row>
     <row r="116" spans="1:12" ht="13.2">
       <c r="A116" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="B116" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116" s="31" t="s">
-        <v>349</v>
-      </c>
       <c r="D116" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F116">
         <v>161</v>
@@ -7255,19 +7316,19 @@
     </row>
     <row r="117" spans="1:12" ht="13.2">
       <c r="A117" s="30" t="s">
+        <v>577</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="31" t="s">
         <v>578</v>
       </c>
-      <c r="B117" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>579</v>
-      </c>
       <c r="D117" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F117">
         <v>161</v>
@@ -7291,19 +7352,19 @@
     </row>
     <row r="118" spans="1:12" ht="13.2">
       <c r="A118" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="B118" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="31" t="s">
-        <v>351</v>
-      </c>
       <c r="D118" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F118">
         <v>161</v>
@@ -7327,19 +7388,19 @@
     </row>
     <row r="119" spans="1:12" ht="13.2">
       <c r="A119" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="B119" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>581</v>
-      </c>
       <c r="D119" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F119">
         <v>71</v>
@@ -7360,24 +7421,24 @@
         <v>0</v>
       </c>
       <c r="L119" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="13.2">
       <c r="A120" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="B120" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C120" s="31" t="s">
-        <v>426</v>
-      </c>
       <c r="D120" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F120">
         <v>161</v>
@@ -7399,18 +7460,18 @@
       </c>
       <c r="L120" s="35"/>
     </row>
-    <row r="121" spans="1:12" ht="13.2">
+    <row r="121" spans="1:12" ht="15.6">
       <c r="A121" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B121" s="31" t="s">
+      <c r="B121" s="55" t="s">
+        <v>691</v>
+      </c>
+      <c r="C121" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C121" s="31" t="s">
+      <c r="D121" s="32" t="s">
         <v>18</v>
-      </c>
-      <c r="D121" s="32" t="s">
-        <v>19</v>
       </c>
       <c r="E121" s="31"/>
       <c r="F121">
@@ -7435,19 +7496,19 @@
     </row>
     <row r="122" spans="1:12" ht="13.2">
       <c r="A122" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="31" t="s">
         <v>515</v>
       </c>
-      <c r="B122" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>516</v>
-      </c>
       <c r="D122" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F122">
         <v>161</v>
@@ -7471,19 +7532,19 @@
     </row>
     <row r="123" spans="1:12" ht="13.2">
       <c r="A123" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="B123" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C123" s="31" t="s">
-        <v>481</v>
-      </c>
       <c r="D123" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F123">
         <v>161</v>
@@ -7505,21 +7566,21 @@
       </c>
       <c r="L123" s="35"/>
     </row>
-    <row r="124" spans="1:12" ht="13.2">
+    <row r="124" spans="1:12" ht="15.6">
       <c r="A124" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C124" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="B124" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C124" s="31" t="s">
-        <v>252</v>
-      </c>
       <c r="D124" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F124">
         <v>161</v>
@@ -7543,19 +7604,19 @@
     </row>
     <row r="125" spans="1:12" ht="13.2">
       <c r="A125" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="B125" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C125" s="31" t="s">
-        <v>583</v>
-      </c>
       <c r="D125" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F125">
         <v>161</v>
@@ -7579,19 +7640,19 @@
     </row>
     <row r="126" spans="1:12" ht="13.2">
       <c r="A126" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B126" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="31" t="s">
-        <v>198</v>
-      </c>
       <c r="D126" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E126" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F126">
         <v>161</v>
@@ -7615,19 +7676,19 @@
     </row>
     <row r="127" spans="1:12" ht="13.2">
       <c r="A127" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="31" t="s">
+      <c r="C127" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C127" s="31" t="s">
-        <v>153</v>
-      </c>
       <c r="D127" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F127">
         <v>161</v>
@@ -7651,19 +7712,19 @@
     </row>
     <row r="128" spans="1:12" ht="13.2">
       <c r="A128" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="B128" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="31" t="s">
-        <v>368</v>
-      </c>
       <c r="D128" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F128">
         <v>71</v>
@@ -7684,24 +7745,24 @@
         <v>0.05</v>
       </c>
       <c r="L128" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="13.2">
       <c r="A129" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="31" t="s">
         <v>584</v>
       </c>
-      <c r="B129" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C129" s="31" t="s">
-        <v>585</v>
-      </c>
       <c r="D129" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F129">
         <v>161</v>
@@ -7723,21 +7784,21 @@
       </c>
       <c r="L129" s="35"/>
     </row>
-    <row r="130" spans="1:12" ht="13.2">
+    <row r="130" spans="1:12" ht="15.6">
       <c r="A130" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C130" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="B130" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C130" s="31" t="s">
-        <v>281</v>
-      </c>
       <c r="D130" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F130">
         <v>161</v>
@@ -7759,21 +7820,21 @@
       </c>
       <c r="L130" s="35"/>
     </row>
-    <row r="131" spans="1:12" ht="13.2">
+    <row r="131" spans="1:12" ht="15.6">
       <c r="A131" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B131" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C131" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="B131" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>308</v>
-      </c>
       <c r="D131" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F131">
         <v>71</v>
@@ -7794,24 +7855,24 @@
         <v>0.06</v>
       </c>
       <c r="L131" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="13.2">
       <c r="A132" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="B132" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="B132" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="D132" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F132">
         <v>161</v>
@@ -7835,19 +7896,19 @@
     </row>
     <row r="133" spans="1:12" ht="13.2">
       <c r="A133" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="B133" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" s="31" t="s">
         <v>517</v>
-      </c>
-      <c r="B133" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C133" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D133" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>518</v>
       </c>
       <c r="F133">
         <v>161</v>
@@ -7869,18 +7930,18 @@
       </c>
       <c r="L133" s="35"/>
     </row>
-    <row r="134" spans="1:12" ht="13.2">
+    <row r="134" spans="1:12" ht="15.6">
       <c r="A134" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="B134" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B134" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C134" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C134" s="31" t="s">
+      <c r="D134" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D134" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E134" s="31"/>
       <c r="F134">
@@ -7905,19 +7966,19 @@
     </row>
     <row r="135" spans="1:12" ht="13.2">
       <c r="A135" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B135" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="B135" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C135" s="31" t="s">
-        <v>254</v>
-      </c>
       <c r="D135" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F135">
         <v>161</v>
@@ -7941,19 +8002,19 @@
     </row>
     <row r="136" spans="1:12" ht="13.2">
       <c r="A136" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="B136" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="B136" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C136" s="31" t="s">
-        <v>587</v>
-      </c>
       <c r="D136" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F136">
         <v>161</v>
@@ -7977,19 +8038,19 @@
     </row>
     <row r="137" spans="1:12" ht="13.2">
       <c r="A137" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B137" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" s="31" t="s">
         <v>282</v>
-      </c>
-      <c r="B137" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C137" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" s="31" t="s">
-        <v>283</v>
       </c>
       <c r="F137">
         <v>161</v>
@@ -8013,19 +8074,19 @@
     </row>
     <row r="138" spans="1:12" ht="13.2">
       <c r="A138" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B138" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C138" s="31" t="s">
-        <v>200</v>
-      </c>
       <c r="D138" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F138">
         <v>161</v>
@@ -8047,21 +8108,21 @@
       </c>
       <c r="L138" s="35"/>
     </row>
-    <row r="139" spans="1:12" ht="13.2">
+    <row r="139" spans="1:12" ht="15.6">
       <c r="A139" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="B139" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B139" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="C139" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C139" s="31" t="s">
+      <c r="D139" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D139" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E139" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F139">
         <v>161</v>
@@ -8085,19 +8146,19 @@
     </row>
     <row r="140" spans="1:12" ht="13.2">
       <c r="A140" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C140" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="B140" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C140" s="31" t="s">
-        <v>412</v>
-      </c>
       <c r="D140" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E140" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F140">
         <v>161</v>
@@ -8121,19 +8182,19 @@
     </row>
     <row r="141" spans="1:12" ht="13.2">
       <c r="A141" s="36" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C141" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E141" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F141">
         <v>119</v>
@@ -8157,19 +8218,19 @@
     </row>
     <row r="142" spans="1:12" ht="13.2">
       <c r="A142" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C142" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B142" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C142" s="31" t="s">
-        <v>155</v>
-      </c>
       <c r="D142" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F142">
         <v>161</v>
@@ -8193,19 +8254,19 @@
     </row>
     <row r="143" spans="1:12" ht="13.2">
       <c r="A143" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="B143" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" s="31" t="s">
         <v>588</v>
       </c>
-      <c r="B143" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C143" s="31" t="s">
-        <v>589</v>
-      </c>
       <c r="D143" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F143">
         <v>161</v>
@@ -8229,19 +8290,19 @@
     </row>
     <row r="144" spans="1:12" ht="13.2">
       <c r="A144" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B144" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="B144" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C144" s="31" t="s">
-        <v>353</v>
-      </c>
       <c r="D144" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F144">
         <v>161</v>
@@ -8265,19 +8326,19 @@
     </row>
     <row r="145" spans="1:12" ht="13.2">
       <c r="A145" s="30" t="s">
+        <v>589</v>
+      </c>
+      <c r="B145" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C145" s="31" t="s">
         <v>590</v>
       </c>
-      <c r="B145" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C145" s="31" t="s">
-        <v>591</v>
-      </c>
       <c r="D145" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F145">
         <v>161</v>
@@ -8301,19 +8362,19 @@
     </row>
     <row r="146" spans="1:12" ht="13.2">
       <c r="A146" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B146" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B146" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C146" s="31" t="s">
-        <v>388</v>
-      </c>
       <c r="D146" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F146">
         <v>161</v>
@@ -8337,19 +8398,19 @@
     </row>
     <row r="147" spans="1:12" ht="13.2">
       <c r="A147" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B147" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C147" s="31" t="s">
-        <v>225</v>
-      </c>
       <c r="D147" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F147">
         <v>161</v>
@@ -8373,19 +8434,19 @@
     </row>
     <row r="148" spans="1:12" ht="13.2">
       <c r="A148" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B148" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="B148" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C148" s="31" t="s">
-        <v>256</v>
-      </c>
       <c r="D148" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F148">
         <v>161</v>
@@ -8409,19 +8470,19 @@
     </row>
     <row r="149" spans="1:12" ht="13.2">
       <c r="A149" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="B149" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" s="31" t="s">
         <v>592</v>
       </c>
-      <c r="B149" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C149" s="31" t="s">
-        <v>593</v>
-      </c>
       <c r="D149" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F149">
         <v>161</v>
@@ -8443,21 +8504,21 @@
       </c>
       <c r="L149" s="35"/>
     </row>
-    <row r="150" spans="1:12" ht="13.2">
+    <row r="150" spans="1:12" ht="15.6">
       <c r="A150" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B150" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C150" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B150" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C150" s="31" t="s">
-        <v>51</v>
-      </c>
       <c r="D150" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F150">
         <v>161</v>
@@ -8481,19 +8542,19 @@
     </row>
     <row r="151" spans="1:12" ht="13.2">
       <c r="A151" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="B151" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C151" s="31" t="s">
         <v>594</v>
       </c>
-      <c r="B151" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C151" s="31" t="s">
-        <v>595</v>
-      </c>
       <c r="D151" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E151" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F151">
         <v>41</v>
@@ -8514,24 +8575,24 @@
         <v>0</v>
       </c>
       <c r="L151" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="13.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="15.6">
       <c r="A152" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B152" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C152" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B152" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>227</v>
-      </c>
       <c r="D152" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E152" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F152">
         <v>161</v>
@@ -8555,19 +8616,19 @@
     </row>
     <row r="153" spans="1:12" ht="13.2">
       <c r="A153" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B153" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="B153" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C153" s="31" t="s">
-        <v>285</v>
-      </c>
       <c r="D153" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F153">
         <v>161</v>
@@ -8591,19 +8652,19 @@
     </row>
     <row r="154" spans="1:12" ht="13.2">
       <c r="A154" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C154" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="B154" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>390</v>
-      </c>
       <c r="D154" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F154">
         <v>161</v>
@@ -8627,19 +8688,19 @@
     </row>
     <row r="155" spans="1:12" ht="13.2">
       <c r="A155" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B155" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C155" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="B155" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C155" s="31" t="s">
-        <v>452</v>
-      </c>
       <c r="D155" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F155">
         <v>161</v>
@@ -8663,19 +8724,19 @@
     </row>
     <row r="156" spans="1:12" ht="13.2">
       <c r="A156" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B156" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C156" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B156" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C156" s="31" t="s">
-        <v>179</v>
-      </c>
       <c r="D156" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F156">
         <v>161</v>
@@ -8697,21 +8758,21 @@
       </c>
       <c r="L156" s="35"/>
     </row>
-    <row r="157" spans="1:12" ht="13.2">
+    <row r="157" spans="1:12" ht="15.6">
       <c r="A157" s="30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B157" s="53" t="s">
+        <v>684</v>
+      </c>
+      <c r="C157" s="31" t="s">
         <v>596</v>
       </c>
-      <c r="B157" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C157" s="31" t="s">
-        <v>597</v>
-      </c>
       <c r="D157" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F157">
         <v>161</v>
@@ -8733,21 +8794,21 @@
       </c>
       <c r="L157" s="35"/>
     </row>
-    <row r="158" spans="1:12" ht="13.2">
+    <row r="158" spans="1:12" ht="15.6">
       <c r="A158" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="B158" s="31" t="s">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="B158" s="53" t="s">
+        <v>688</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F158">
         <v>161</v>
@@ -8771,19 +8832,19 @@
     </row>
     <row r="159" spans="1:12" ht="13.2">
       <c r="A159" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C159" s="31" t="s">
         <v>519</v>
       </c>
-      <c r="B159" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C159" s="31" t="s">
-        <v>520</v>
-      </c>
       <c r="D159" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F159">
         <v>161</v>
@@ -8807,19 +8868,19 @@
     </row>
     <row r="160" spans="1:12" ht="13.2">
       <c r="A160" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="B160" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C160" s="31" t="s">
         <v>521</v>
       </c>
-      <c r="B160" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C160" s="31" t="s">
-        <v>522</v>
-      </c>
       <c r="D160" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F160">
         <v>161</v>
@@ -8843,19 +8904,19 @@
     </row>
     <row r="161" spans="1:12" ht="13.2">
       <c r="A161" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C161" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B161" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C161" s="31" t="s">
-        <v>202</v>
-      </c>
       <c r="D161" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="E161" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="F161">
         <v>161</v>
@@ -8879,19 +8940,19 @@
     </row>
     <row r="162" spans="1:12" ht="13.2">
       <c r="A162" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C162" s="31" t="s">
         <v>598</v>
       </c>
-      <c r="B162" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C162" s="31" t="s">
-        <v>599</v>
-      </c>
       <c r="D162" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F162">
         <v>161</v>
@@ -8915,19 +8976,19 @@
     </row>
     <row r="163" spans="1:12" ht="13.2">
       <c r="A163" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B163" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C163" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C163" s="31" t="s">
+      <c r="D163" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D163" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E163" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F163">
         <v>161</v>
@@ -8951,19 +9012,19 @@
     </row>
     <row r="164" spans="1:12" ht="13.2">
       <c r="A164" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C164" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="B164" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C164" s="31" t="s">
-        <v>483</v>
-      </c>
       <c r="D164" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F164">
         <v>161</v>
@@ -8987,19 +9048,19 @@
     </row>
     <row r="165" spans="1:12" ht="13.2">
       <c r="A165" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B165" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C165" s="31" t="s">
-        <v>36</v>
-      </c>
       <c r="D165" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="E165" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="F165">
         <v>161</v>
@@ -9023,19 +9084,19 @@
     </row>
     <row r="166" spans="1:12" ht="13.2">
       <c r="A166" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="B166" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C166" s="31" t="s">
-        <v>485</v>
-      </c>
       <c r="D166" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F166">
         <v>161</v>
@@ -9059,19 +9120,19 @@
     </row>
     <row r="167" spans="1:12" ht="13.2">
       <c r="A167" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B167" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C167" s="31" t="s">
-        <v>82</v>
-      </c>
       <c r="D167" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F167">
         <v>161</v>
@@ -9092,24 +9153,24 @@
         <v>0.15</v>
       </c>
       <c r="L167" s="35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="13.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="15.6">
       <c r="A168" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="B168" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C168" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="B168" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C168" s="31" t="s">
-        <v>414</v>
-      </c>
       <c r="D168" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F168">
         <v>161</v>
@@ -9133,19 +9194,19 @@
     </row>
     <row r="169" spans="1:12" ht="13.2">
       <c r="A169" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B169" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C169" s="31" t="s">
-        <v>102</v>
-      </c>
       <c r="D169" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F169">
         <v>161</v>
@@ -9169,19 +9230,19 @@
     </row>
     <row r="170" spans="1:12" ht="13.2">
       <c r="A170" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" s="31" t="s">
         <v>600</v>
       </c>
-      <c r="B170" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C170" s="31" t="s">
-        <v>601</v>
-      </c>
       <c r="D170" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F170">
         <v>161</v>
@@ -9205,19 +9266,19 @@
     </row>
     <row r="171" spans="1:12" ht="13.2">
       <c r="A171" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="B171" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C171" s="31" t="s">
-        <v>91</v>
-      </c>
       <c r="D171" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F171">
         <v>161</v>
@@ -9239,21 +9300,21 @@
       </c>
       <c r="L171" s="35"/>
     </row>
-    <row r="172" spans="1:12" ht="13.2">
+    <row r="172" spans="1:12" ht="15.6">
       <c r="A172" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B172" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C172" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B172" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C172" s="31" t="s">
-        <v>164</v>
-      </c>
       <c r="D172" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F172">
         <v>161</v>
@@ -9277,19 +9338,19 @@
     </row>
     <row r="173" spans="1:12" ht="13.2">
       <c r="A173" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D173" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="31" t="s">
         <v>453</v>
-      </c>
-      <c r="B173" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C173" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D173" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E173" s="31" t="s">
-        <v>454</v>
       </c>
       <c r="F173">
         <v>161</v>
@@ -9311,21 +9372,21 @@
       </c>
       <c r="L173" s="35"/>
     </row>
-    <row r="174" spans="1:12" ht="13.2">
+    <row r="174" spans="1:12" ht="15.6">
       <c r="A174" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B174" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C174" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B174" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C174" s="31" t="s">
-        <v>104</v>
-      </c>
       <c r="D174" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F174">
         <v>161</v>
@@ -9349,19 +9410,19 @@
     </row>
     <row r="175" spans="1:12" ht="13.2">
       <c r="A175" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B175" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B175" s="31" t="s">
+      <c r="C175" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C175" s="31" t="s">
-        <v>120</v>
-      </c>
       <c r="D175" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F175">
         <v>161</v>
@@ -9385,19 +9446,19 @@
     </row>
     <row r="176" spans="1:12" ht="13.2">
       <c r="A176" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" s="31" t="s">
         <v>602</v>
       </c>
-      <c r="B176" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C176" s="31" t="s">
-        <v>603</v>
-      </c>
       <c r="D176" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F176">
         <v>71</v>
@@ -9418,24 +9479,24 @@
         <v>0</v>
       </c>
       <c r="L176" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" ht="13.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="15.6">
       <c r="A177" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B177" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C177" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="B177" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C177" s="31" t="s">
-        <v>287</v>
-      </c>
       <c r="D177" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F177">
         <v>161</v>
@@ -9457,21 +9518,21 @@
       </c>
       <c r="L177" s="35"/>
     </row>
-    <row r="178" spans="1:12" ht="13.2">
+    <row r="178" spans="1:12" ht="15.6">
       <c r="A178" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="B178" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="B178" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C178" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C178" s="31" t="s">
+      <c r="D178" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D178" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E178" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F178">
         <v>161</v>
@@ -9495,19 +9556,19 @@
     </row>
     <row r="179" spans="1:12" ht="13.2">
       <c r="A179" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C179" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="B179" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C179" s="31" t="s">
-        <v>468</v>
-      </c>
       <c r="D179" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F179">
         <v>71</v>
@@ -9528,24 +9589,24 @@
         <v>0.02</v>
       </c>
       <c r="L179" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" ht="13.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" ht="15.6">
       <c r="A180" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C180" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B180" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C180" s="31" t="s">
-        <v>72</v>
-      </c>
       <c r="D180" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F180">
         <v>161</v>
@@ -9569,19 +9630,19 @@
     </row>
     <row r="181" spans="1:12" ht="13.2">
       <c r="A181" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="B181" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C181" s="31" t="s">
-        <v>524</v>
-      </c>
       <c r="D181" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F181">
         <v>161</v>
@@ -9605,19 +9666,19 @@
     </row>
     <row r="182" spans="1:12" ht="13.2">
       <c r="A182" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="B182" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C182" s="31" t="s">
-        <v>487</v>
-      </c>
       <c r="D182" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F182">
         <v>161</v>
@@ -9641,19 +9702,19 @@
     </row>
     <row r="183" spans="1:12" ht="13.2">
       <c r="A183" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="B183" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C183" s="31" t="s">
-        <v>489</v>
-      </c>
       <c r="D183" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F183">
         <v>161</v>
@@ -9674,24 +9735,24 @@
         <v>0.01</v>
       </c>
       <c r="L183" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="13.2">
       <c r="A184" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C184" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="B184" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C184" s="31" t="s">
-        <v>370</v>
-      </c>
       <c r="D184" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F184">
         <v>71</v>
@@ -9712,24 +9773,24 @@
         <v>0.05</v>
       </c>
       <c r="L184" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="13.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15.6">
       <c r="A185" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B185" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C185" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B185" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C185" s="31" t="s">
-        <v>229</v>
-      </c>
       <c r="D185" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F185">
         <v>161</v>
@@ -9751,21 +9812,21 @@
       </c>
       <c r="L185" s="35"/>
     </row>
-    <row r="186" spans="1:12" ht="13.2">
+    <row r="186" spans="1:12" ht="15.6">
       <c r="A186" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B186" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C186" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B186" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C186" s="31" t="s">
-        <v>122</v>
-      </c>
       <c r="D186" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F186">
         <v>161</v>
@@ -9787,21 +9848,21 @@
       </c>
       <c r="L186" s="35"/>
     </row>
-    <row r="187" spans="1:12" ht="13.2">
+    <row r="187" spans="1:12" ht="15.6">
       <c r="A187" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="B187" s="31" t="s">
-        <v>124</v>
+        <v>330</v>
+      </c>
+      <c r="B187" s="55" t="s">
+        <v>689</v>
       </c>
       <c r="C187" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D187" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E187" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F187">
         <v>161</v>
@@ -9825,19 +9886,19 @@
     </row>
     <row r="188" spans="1:12" ht="13.2">
       <c r="A188" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B188" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C188" s="31" t="s">
-        <v>166</v>
-      </c>
       <c r="D188" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F188">
         <v>161</v>
@@ -9861,19 +9922,19 @@
     </row>
     <row r="189" spans="1:12" ht="13.2">
       <c r="A189" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="B189" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="B189" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C189" s="31" t="s">
-        <v>372</v>
-      </c>
       <c r="D189" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F189">
         <v>71</v>
@@ -9894,24 +9955,24 @@
         <v>0.05</v>
       </c>
       <c r="L189" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="13.2">
       <c r="A190" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B190" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="B190" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C190" s="31" t="s">
-        <v>456</v>
-      </c>
       <c r="D190" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F190">
         <v>161</v>
@@ -9933,21 +9994,21 @@
       </c>
       <c r="L190" s="35"/>
     </row>
-    <row r="191" spans="1:12" ht="13.2">
+    <row r="191" spans="1:12" ht="15.6">
       <c r="A191" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B191" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C191" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B191" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C191" s="31" t="s">
-        <v>106</v>
-      </c>
       <c r="D191" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F191">
         <v>161</v>
@@ -9969,21 +10030,21 @@
       </c>
       <c r="L191" s="35"/>
     </row>
-    <row r="192" spans="1:12" ht="13.2">
+    <row r="192" spans="1:12" ht="15.6">
       <c r="A192" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B192" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="C192" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="B192" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C192" s="31" t="s">
+      <c r="D192" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E192" s="31" t="s">
         <v>211</v>
-      </c>
-      <c r="D192" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E192" s="31" t="s">
-        <v>212</v>
       </c>
       <c r="F192">
         <v>161</v>
@@ -10007,19 +10068,19 @@
     </row>
     <row r="193" spans="1:12" ht="13.2">
       <c r="A193" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C193" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D193" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E193" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F193">
         <v>161</v>
@@ -10043,19 +10104,19 @@
     </row>
     <row r="194" spans="1:12" ht="13.2">
       <c r="A194" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C194" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="B194" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C194" s="31" t="s">
-        <v>214</v>
-      </c>
       <c r="D194" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F194">
         <v>161</v>
@@ -10077,21 +10138,21 @@
       </c>
       <c r="L194" s="35"/>
     </row>
-    <row r="195" spans="1:12" ht="13.2">
+    <row r="195" spans="1:12" ht="15.6">
       <c r="A195" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B195" s="55" t="s">
+        <v>693</v>
+      </c>
+      <c r="C195" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="B195" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C195" s="31" t="s">
-        <v>290</v>
-      </c>
       <c r="D195" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E195" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F195">
         <v>161</v>
@@ -10115,19 +10176,19 @@
     </row>
     <row r="196" spans="1:12" ht="13.2">
       <c r="A196" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="B196" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C196" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="B196" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C196" s="31" t="s">
-        <v>526</v>
-      </c>
       <c r="D196" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E196" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F196">
         <v>161</v>
@@ -10151,19 +10212,19 @@
     </row>
     <row r="197" spans="1:12" ht="13.2">
       <c r="A197" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B197" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" s="31" t="s">
         <v>355</v>
       </c>
-      <c r="B197" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C197" s="31" t="s">
-        <v>356</v>
-      </c>
       <c r="D197" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E197" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F197">
         <v>161</v>
@@ -10185,21 +10246,21 @@
       </c>
       <c r="L197" s="35"/>
     </row>
-    <row r="198" spans="1:12" ht="13.2">
+    <row r="198" spans="1:12" ht="15.6">
       <c r="A198" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="B198" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="C198" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B198" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C198" s="31" t="s">
-        <v>171</v>
-      </c>
       <c r="D198" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F198">
         <v>161</v>
@@ -10223,19 +10284,19 @@
     </row>
     <row r="199" spans="1:12" ht="13.2">
       <c r="A199" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="B199" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C199" s="31" t="s">
         <v>604</v>
       </c>
-      <c r="B199" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C199" s="31" t="s">
-        <v>605</v>
-      </c>
       <c r="D199" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E199" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F199">
         <v>161</v>
@@ -10259,19 +10320,19 @@
     </row>
     <row r="200" spans="1:12" ht="13.2">
       <c r="A200" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B200" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C200" s="31" t="s">
-        <v>93</v>
-      </c>
       <c r="D200" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F200">
         <v>161</v>
@@ -10295,19 +10356,19 @@
     </row>
     <row r="201" spans="1:12" ht="13.2">
       <c r="A201" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D201" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E201" s="31" t="s">
         <v>432</v>
-      </c>
-      <c r="B201" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C201" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D201" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E201" s="31" t="s">
-        <v>433</v>
       </c>
       <c r="F201">
         <v>161</v>
@@ -10331,19 +10392,19 @@
     </row>
     <row r="202" spans="1:12" ht="13.2">
       <c r="A202" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C202" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D202" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E202" s="31" t="s">
         <v>457</v>
-      </c>
-      <c r="B202" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C202" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D202" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E202" s="31" t="s">
-        <v>458</v>
       </c>
       <c r="F202">
         <v>161</v>
@@ -10367,19 +10428,19 @@
     </row>
     <row r="203" spans="1:12" ht="13.2">
       <c r="A203" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C203" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="B203" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C203" s="31" t="s">
-        <v>292</v>
-      </c>
       <c r="D203" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E203" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F203">
         <v>161</v>
@@ -10403,19 +10464,19 @@
     </row>
     <row r="204" spans="1:12" ht="13.2">
       <c r="A204" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="B204" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C204" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="B204" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C204" s="31" t="s">
-        <v>460</v>
-      </c>
       <c r="D204" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F204">
         <v>161</v>
@@ -10439,19 +10500,19 @@
     </row>
     <row r="205" spans="1:12" ht="13.2">
       <c r="A205" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B205" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="B205" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C205" s="31" t="s">
-        <v>392</v>
-      </c>
       <c r="D205" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F205">
         <v>161</v>
@@ -10475,16 +10536,16 @@
     </row>
     <row r="206" spans="1:12" ht="13.2">
       <c r="A206" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B206" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C206" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D206" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D206" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E206" s="31"/>
       <c r="F206">
@@ -10507,21 +10568,21 @@
       </c>
       <c r="L206" s="35"/>
     </row>
-    <row r="207" spans="1:12" ht="13.2">
+    <row r="207" spans="1:12" ht="15.6">
       <c r="A207" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B207" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C207" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="B207" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C207" s="31" t="s">
-        <v>435</v>
-      </c>
       <c r="D207" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E207" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F207">
         <v>161</v>
@@ -10545,19 +10606,19 @@
     </row>
     <row r="208" spans="1:12" ht="13.2">
       <c r="A208" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="B208" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C208" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="B208" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C208" s="31" t="s">
-        <v>294</v>
-      </c>
       <c r="D208" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E208" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F208">
         <v>161</v>
@@ -10581,19 +10642,19 @@
     </row>
     <row r="209" spans="1:12" ht="13.2">
       <c r="A209" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B209" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C209" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B209" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C209" s="31" t="s">
-        <v>132</v>
-      </c>
       <c r="D209" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E209" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F209">
         <v>161</v>
@@ -10617,19 +10678,19 @@
     </row>
     <row r="210" spans="1:12" ht="13.2">
       <c r="A210" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="B210" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="B210" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C210" s="31" t="s">
-        <v>394</v>
-      </c>
       <c r="D210" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F210">
         <v>161</v>
@@ -10651,21 +10712,21 @@
       </c>
       <c r="L210" s="35"/>
     </row>
-    <row r="211" spans="1:12" ht="13.2">
+    <row r="211" spans="1:12" ht="15.6">
       <c r="A211" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B211" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C211" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B211" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C211" s="31" t="s">
-        <v>258</v>
-      </c>
       <c r="D211" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E211" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F211">
         <v>161</v>
@@ -10687,21 +10748,21 @@
       </c>
       <c r="L211" s="35"/>
     </row>
-    <row r="212" spans="1:12" ht="13.2">
+    <row r="212" spans="1:12" ht="15.6">
       <c r="A212" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B212" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C212" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="B212" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C212" s="31" t="s">
-        <v>334</v>
-      </c>
       <c r="D212" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E212" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F212">
         <v>161</v>
@@ -10725,19 +10786,19 @@
     </row>
     <row r="213" spans="1:12" ht="13.2">
       <c r="A213" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B213" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C213" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D213" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D213" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E213" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F213">
         <v>161</v>
@@ -10761,19 +10822,19 @@
     </row>
     <row r="214" spans="1:12" ht="13.2">
       <c r="A214" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B214" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C214" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="B214" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C214" s="31" t="s">
-        <v>260</v>
-      </c>
       <c r="D214" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E214" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F214">
         <v>161</v>
@@ -10797,19 +10858,19 @@
     </row>
     <row r="215" spans="1:12" ht="13.2">
       <c r="A215" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="B215" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C215" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="B215" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C215" s="31" t="s">
-        <v>607</v>
-      </c>
       <c r="D215" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E215" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F215">
         <v>161</v>
@@ -10833,19 +10894,19 @@
     </row>
     <row r="216" spans="1:12" ht="13.2">
       <c r="A216" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B216" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C216" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B216" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C216" s="31" t="s">
-        <v>231</v>
-      </c>
       <c r="D216" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F216">
         <v>161</v>
@@ -10869,19 +10930,19 @@
     </row>
     <row r="217" spans="1:12" ht="13.2">
       <c r="A217" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B217" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C217" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="B217" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C217" s="31" t="s">
+      <c r="D217" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D217" s="32" t="s">
-        <v>109</v>
-      </c>
       <c r="E217" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F217">
         <v>161</v>
@@ -10903,21 +10964,21 @@
       </c>
       <c r="L217" s="35"/>
     </row>
-    <row r="218" spans="1:12" ht="13.2">
+    <row r="218" spans="1:12" ht="15.6">
       <c r="A218" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B218" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C218" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="B218" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C218" s="31" t="s">
-        <v>336</v>
-      </c>
       <c r="D218" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E218" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F218">
         <v>161</v>
@@ -10941,19 +11002,19 @@
     </row>
     <row r="219" spans="1:12" ht="13.2">
       <c r="A219" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B219" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C219" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="B219" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C219" s="31" t="s">
-        <v>296</v>
-      </c>
       <c r="D219" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E219" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F219">
         <v>161</v>
@@ -10977,19 +11038,19 @@
     </row>
     <row r="220" spans="1:12" ht="13.2">
       <c r="A220" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="B220" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C220" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C220" s="31" t="s">
-        <v>437</v>
-      </c>
       <c r="D220" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E220" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F220">
         <v>161</v>
@@ -11013,19 +11074,19 @@
     </row>
     <row r="221" spans="1:12" ht="13.2">
       <c r="A221" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="B221" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C221" s="31" t="s">
         <v>608</v>
       </c>
-      <c r="B221" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C221" s="31" t="s">
-        <v>609</v>
-      </c>
       <c r="D221" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E221" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F221">
         <v>71</v>
@@ -11046,24 +11107,24 @@
         <v>0</v>
       </c>
       <c r="L221" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:12" ht="13.2">
       <c r="A222" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="B222" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C222" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B222" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C222" s="31" t="s">
-        <v>462</v>
-      </c>
       <c r="D222" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E222" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F222">
         <v>161</v>
@@ -11087,19 +11148,19 @@
     </row>
     <row r="223" spans="1:12" ht="13.2">
       <c r="A223" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="B223" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C223" s="31" t="s">
         <v>610</v>
       </c>
-      <c r="B223" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C223" s="31" t="s">
-        <v>611</v>
-      </c>
       <c r="D223" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E223" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F223">
         <v>161</v>
@@ -11121,21 +11182,21 @@
       </c>
       <c r="L223" s="35"/>
     </row>
-    <row r="224" spans="1:12" ht="13.2">
+    <row r="224" spans="1:12" ht="15.6">
       <c r="A224" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B224" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C224" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D224" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E224" s="31" t="s">
         <v>337</v>
-      </c>
-      <c r="B224" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C224" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D224" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E224" s="31" t="s">
-        <v>338</v>
       </c>
       <c r="F224">
         <v>161</v>
@@ -11157,21 +11218,21 @@
       </c>
       <c r="L224" s="35"/>
     </row>
-    <row r="225" spans="1:12" ht="13.2">
+    <row r="225" spans="1:12" ht="15.6">
       <c r="A225" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B225" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="C225" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C225" s="31" t="s">
+      <c r="D225" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D225" s="32" t="s">
+      <c r="E225" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E225" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F225">
         <v>61</v>
@@ -11192,24 +11253,24 @@
         <v>0.36</v>
       </c>
       <c r="L225" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="226" spans="1:12" ht="13.2">
       <c r="A226" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="B226" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C226" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="B226" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C226" s="31" t="s">
-        <v>528</v>
-      </c>
       <c r="D226" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E226" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F226">
         <v>161</v>
@@ -11233,19 +11294,19 @@
     </row>
     <row r="227" spans="1:12" ht="13.2">
       <c r="A227" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B227" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C227" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="B227" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C227" s="31" t="s">
-        <v>340</v>
-      </c>
       <c r="D227" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E227" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F227">
         <v>161</v>
@@ -11267,21 +11328,21 @@
       </c>
       <c r="L227" s="35"/>
     </row>
-    <row r="228" spans="1:12" ht="13.2">
+    <row r="228" spans="1:12" ht="15.6">
       <c r="A228" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B228" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="C228" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B228" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C228" s="31" t="s">
-        <v>95</v>
-      </c>
       <c r="D228" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E228" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F228">
         <v>161</v>
@@ -11305,16 +11366,16 @@
     </row>
     <row r="229" spans="1:12" ht="13.2">
       <c r="A229" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C229" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D229" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D229" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E229" s="31"/>
       <c r="F229">
@@ -11337,21 +11398,21 @@
       </c>
       <c r="L229" s="35"/>
     </row>
-    <row r="230" spans="1:12" ht="13.2">
+    <row r="230" spans="1:12" ht="15.6">
       <c r="A230" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B230" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="C230" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B230" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C230" s="31" t="s">
-        <v>298</v>
-      </c>
       <c r="D230" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E230" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F230">
         <v>161</v>
@@ -11375,19 +11436,19 @@
     </row>
     <row r="231" spans="1:12" ht="13.2">
       <c r="A231" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B231" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C231" s="31" t="s">
         <v>415</v>
       </c>
-      <c r="B231" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C231" s="31" t="s">
-        <v>416</v>
-      </c>
       <c r="D231" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E231" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F231">
         <v>161</v>
@@ -11411,19 +11472,19 @@
     </row>
     <row r="232" spans="1:12" ht="13.2">
       <c r="A232" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B232" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C232" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="B232" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C232" s="31" t="s">
-        <v>492</v>
-      </c>
       <c r="D232" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E232" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F232">
         <v>161</v>
@@ -11447,19 +11508,19 @@
     </row>
     <row r="233" spans="1:12" ht="13.2">
       <c r="A233" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B233" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C233" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="B233" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C233" s="31" t="s">
-        <v>398</v>
-      </c>
       <c r="D233" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E233" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F233">
         <v>161</v>
@@ -11483,19 +11544,19 @@
     </row>
     <row r="234" spans="1:12" ht="13.2">
       <c r="A234" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="B234" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C234" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="B234" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C234" s="31" t="s">
-        <v>400</v>
-      </c>
       <c r="D234" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E234" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F234">
         <v>161</v>
@@ -11519,19 +11580,19 @@
     </row>
     <row r="235" spans="1:12" ht="13.2">
       <c r="A235" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B235" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C235" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E235" s="31" t="s">
         <v>261</v>
-      </c>
-      <c r="B235" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C235" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D235" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E235" s="31" t="s">
-        <v>262</v>
       </c>
       <c r="F235">
         <v>161</v>
@@ -11555,19 +11616,19 @@
     </row>
     <row r="236" spans="1:12" ht="13.2">
       <c r="A236" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B236" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C236" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B236" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C236" s="31" t="s">
-        <v>173</v>
-      </c>
       <c r="D236" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E236" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F236">
         <v>161</v>
@@ -11589,21 +11650,21 @@
       </c>
       <c r="L236" s="35"/>
     </row>
-    <row r="237" spans="1:12" ht="13.2">
+    <row r="237" spans="1:12" ht="15.6">
       <c r="A237" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B237" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="C237" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="B237" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C237" s="31" t="s">
-        <v>233</v>
-      </c>
       <c r="D237" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E237" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F237">
         <v>161</v>
@@ -11627,19 +11688,19 @@
     </row>
     <row r="238" spans="1:12" ht="13.2">
       <c r="A238" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B238" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C238" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B238" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C238" s="31" t="s">
+      <c r="D238" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D238" s="32" t="s">
-        <v>112</v>
-      </c>
       <c r="E238" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F238">
         <v>161</v>
@@ -11663,19 +11724,19 @@
     </row>
     <row r="239" spans="1:12" ht="13.2">
       <c r="A239" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="B239" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C239" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="B239" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C239" s="31" t="s">
-        <v>530</v>
-      </c>
       <c r="D239" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E239" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F239">
         <v>161</v>
@@ -11699,19 +11760,19 @@
     </row>
     <row r="240" spans="1:12" ht="13.2">
       <c r="A240" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="B240" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C240" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="B240" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C240" s="31" t="s">
-        <v>532</v>
-      </c>
       <c r="D240" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E240" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F240">
         <v>161</v>
@@ -11735,19 +11796,19 @@
     </row>
     <row r="241" spans="1:12" ht="13.2">
       <c r="A241" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B241" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C241" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B241" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C241" s="31" t="s">
-        <v>418</v>
-      </c>
       <c r="D241" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E241" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F241">
         <v>161</v>
@@ -11771,19 +11832,19 @@
     </row>
     <row r="242" spans="1:12" ht="13.2">
       <c r="A242" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B242" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C242" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B242" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C242" s="31" t="s">
-        <v>235</v>
-      </c>
       <c r="D242" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E242" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F242">
         <v>161</v>
@@ -11805,21 +11866,21 @@
       </c>
       <c r="L242" s="35"/>
     </row>
-    <row r="243" spans="1:12" ht="13.2">
+    <row r="243" spans="1:12" ht="15.6">
       <c r="A243" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B243" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C243" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="B243" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C243" s="31" t="s">
-        <v>264</v>
-      </c>
       <c r="D243" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E243" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F243">
         <v>161</v>
@@ -11841,21 +11902,21 @@
       </c>
       <c r="L243" s="35"/>
     </row>
-    <row r="244" spans="1:12" ht="13.2">
+    <row r="244" spans="1:12" ht="15.6">
       <c r="A244" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B244" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C244" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B244" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C244" s="31" t="s">
-        <v>184</v>
-      </c>
       <c r="D244" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E244" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F244">
         <v>161</v>
@@ -11879,19 +11940,19 @@
     </row>
     <row r="245" spans="1:12" ht="13.2">
       <c r="A245" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B245" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C245" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="B245" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C245" s="31" t="s">
-        <v>237</v>
-      </c>
       <c r="D245" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E245" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F245">
         <v>161</v>
@@ -11915,19 +11976,19 @@
     </row>
     <row r="246" spans="1:12" ht="13.2">
       <c r="A246" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C246" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D246" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D246" s="32" t="s">
+      <c r="E246" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E246" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F246">
         <v>28</v>
@@ -11948,24 +12009,24 @@
         <v>0.09</v>
       </c>
       <c r="L246" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="247" spans="1:12" ht="13.2">
       <c r="A247" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B247" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C247" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="B247" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="C247" s="31" t="s">
-        <v>266</v>
-      </c>
       <c r="D247" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E247" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F247">
         <v>161</v>
@@ -11989,19 +12050,19 @@
     </row>
     <row r="248" spans="1:12" ht="13.2">
       <c r="A248" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B248" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C248" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B248" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C248" s="31" t="s">
-        <v>175</v>
-      </c>
       <c r="D248" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E248" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F248">
         <v>161</v>
@@ -12023,21 +12084,21 @@
       </c>
       <c r="L248" s="35"/>
     </row>
-    <row r="249" spans="1:12" ht="13.2">
+    <row r="249" spans="1:12" ht="15.6">
       <c r="A249" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B249" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C249" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B249" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C249" s="31" t="s">
-        <v>310</v>
-      </c>
       <c r="D249" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E249" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F249">
         <v>41</v>
@@ -12058,24 +12119,24 @@
         <v>0.06</v>
       </c>
       <c r="L249" s="35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="250" spans="1:12" ht="13.2">
       <c r="A250" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B250" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C250" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B250" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C250" s="31" t="s">
-        <v>68</v>
-      </c>
       <c r="D250" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E250" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F250">
         <v>161</v>
@@ -12097,21 +12158,21 @@
       </c>
       <c r="L250" s="35"/>
     </row>
-    <row r="251" spans="1:12" ht="13.2">
+    <row r="251" spans="1:12" ht="15.6">
       <c r="A251" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B251" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C251" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B251" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C251" s="31" t="s">
-        <v>138</v>
-      </c>
       <c r="D251" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E251" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F251">
         <v>161</v>
@@ -12135,19 +12196,19 @@
     </row>
     <row r="252" spans="1:12" ht="13.2">
       <c r="A252" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="B252" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C252" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D252" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E252" s="31" t="s">
         <v>612</v>
-      </c>
-      <c r="B252" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C252" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D252" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E252" s="31" t="s">
-        <v>613</v>
       </c>
       <c r="F252">
         <v>161</v>
@@ -12169,21 +12230,21 @@
       </c>
       <c r="L252" s="35"/>
     </row>
-    <row r="253" spans="1:12" ht="13.2">
+    <row r="253" spans="1:12" ht="15.6">
       <c r="A253" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B253" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="C253" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B253" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C253" s="31" t="s">
+      <c r="D253" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E253" s="31" t="s">
         <v>148</v>
-      </c>
-      <c r="D253" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E253" s="31" t="s">
-        <v>149</v>
       </c>
       <c r="F253">
         <v>161</v>
@@ -12207,19 +12268,19 @@
     </row>
     <row r="254" spans="1:12" ht="13.2">
       <c r="A254" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C254" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D254" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D254" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E254" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F254">
         <v>161</v>
@@ -12241,21 +12302,21 @@
       </c>
       <c r="L254" s="35"/>
     </row>
-    <row r="255" spans="1:12" ht="13.2">
+    <row r="255" spans="1:12" ht="15.6">
       <c r="A255" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B255" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C255" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="B255" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C255" s="31" t="s">
-        <v>358</v>
-      </c>
       <c r="D255" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E255" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F255">
         <v>161</v>
@@ -12277,21 +12338,21 @@
       </c>
       <c r="L255" s="35"/>
     </row>
-    <row r="256" spans="1:12" ht="13.2">
+    <row r="256" spans="1:12" ht="15.6">
       <c r="A256" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B256" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C256" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="B256" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C256" s="31" t="s">
-        <v>439</v>
-      </c>
       <c r="D256" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E256" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F256">
         <v>161</v>
@@ -12315,19 +12376,19 @@
     </row>
     <row r="257" spans="1:12" ht="13.2">
       <c r="A257" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="B257" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C257" s="31" t="s">
         <v>614</v>
       </c>
-      <c r="B257" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C257" s="31" t="s">
-        <v>615</v>
-      </c>
       <c r="D257" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E257" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F257">
         <v>161</v>
@@ -12349,21 +12410,21 @@
       </c>
       <c r="L257" s="35"/>
     </row>
-    <row r="258" spans="1:12" ht="13.2">
+    <row r="258" spans="1:12" ht="15.6">
       <c r="A258" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" s="55" t="s">
+        <v>691</v>
+      </c>
+      <c r="C258" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B258" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C258" s="31" t="s">
+      <c r="D258" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D258" s="32" t="s">
-        <v>22</v>
-      </c>
       <c r="E258" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F258">
         <v>161</v>
@@ -12387,19 +12448,19 @@
     </row>
     <row r="259" spans="1:12" ht="13.2">
       <c r="A259" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="B259" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C259" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="B259" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C259" s="31" t="s">
-        <v>534</v>
-      </c>
       <c r="D259" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E259" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F259">
         <v>161</v>
@@ -12423,19 +12484,19 @@
     </row>
     <row r="260" spans="1:12" ht="13.2">
       <c r="A260" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="B260" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C260" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="B260" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C260" s="31" t="s">
-        <v>494</v>
-      </c>
       <c r="D260" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E260" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F260">
         <v>161</v>
@@ -12459,19 +12520,19 @@
     </row>
     <row r="261" spans="1:12" ht="13.2">
       <c r="A261" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C261" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D261" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D261" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E261" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F261">
         <v>161</v>
@@ -12495,19 +12556,19 @@
     </row>
     <row r="262" spans="1:12" ht="13.2">
       <c r="A262" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B262" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C262" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B262" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C262" s="31" t="s">
-        <v>140</v>
-      </c>
       <c r="D262" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E262" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F262">
         <v>161</v>
@@ -12531,19 +12592,19 @@
     </row>
     <row r="263" spans="1:12" ht="13.2">
       <c r="A263" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="B263" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C263" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="B263" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C263" s="31" t="s">
-        <v>360</v>
-      </c>
       <c r="D263" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E263" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="E263" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="F263">
         <v>161</v>
@@ -12565,21 +12626,21 @@
       </c>
       <c r="L263" s="35"/>
     </row>
-    <row r="264" spans="1:12" ht="13.2">
+    <row r="264" spans="1:12" ht="15.6">
       <c r="A264" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B264" s="53" t="s">
+        <v>687</v>
+      </c>
+      <c r="C264" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B264" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C264" s="31" t="s">
-        <v>239</v>
-      </c>
       <c r="D264" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E264" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F264">
         <v>161</v>
@@ -12601,21 +12662,21 @@
       </c>
       <c r="L264" s="35"/>
     </row>
-    <row r="265" spans="1:12" ht="13.2">
+    <row r="265" spans="1:12" ht="15.6">
       <c r="A265" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" s="55" t="s">
+        <v>694</v>
+      </c>
+      <c r="C265" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="B265" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C265" s="31" t="s">
-        <v>268</v>
-      </c>
       <c r="D265" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E265" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F265">
         <v>161</v>
@@ -12639,19 +12700,19 @@
     </row>
     <row r="266" spans="1:12" ht="13.2">
       <c r="A266" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="B266" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C266" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="B266" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C266" s="31" t="s">
-        <v>536</v>
-      </c>
       <c r="D266" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E266" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F266">
         <v>161</v>
@@ -12672,24 +12733,24 @@
         <v>0.01</v>
       </c>
       <c r="L266" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="267" spans="1:12" ht="13.2">
       <c r="A267" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B267" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C267" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B267" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C267" s="31" t="s">
-        <v>114</v>
-      </c>
       <c r="D267" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E267" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="E267" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="F267">
         <v>161</v>
@@ -12710,21 +12771,21 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="L267" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="268" spans="1:12" ht="13.2">
       <c r="A268" s="36" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C268" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D268" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E268" s="31"/>
       <c r="F268">
@@ -12749,19 +12810,19 @@
     </row>
     <row r="269" spans="1:12" ht="13.2">
       <c r="A269" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="B269" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C269" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="B269" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C269" s="31" t="s">
-        <v>421</v>
-      </c>
       <c r="D269" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E269" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F269">
         <v>161</v>
@@ -12785,19 +12846,19 @@
     </row>
     <row r="270" spans="1:12" ht="13.2">
       <c r="A270" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B270" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C270" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="B270" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C270" s="31" t="s">
-        <v>362</v>
-      </c>
       <c r="D270" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E270" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F270">
         <v>161</v>
@@ -12821,19 +12882,19 @@
     </row>
     <row r="271" spans="1:12" ht="13.2">
       <c r="A271" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B271" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C271" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B271" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C271" s="31" t="s">
-        <v>78</v>
-      </c>
       <c r="D271" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E271" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F271">
         <v>161</v>
@@ -12857,16 +12918,16 @@
     </row>
     <row r="272" spans="1:12" ht="13.2">
       <c r="A272" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C272" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D272" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D272" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E272" s="31"/>
       <c r="F272">
@@ -12891,19 +12952,19 @@
     </row>
     <row r="273" spans="1:12" ht="13.2">
       <c r="A273" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B273" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C273" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C273" s="31" t="s">
+      <c r="D273" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D273" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E273" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F273">
         <v>161</v>
@@ -12927,19 +12988,19 @@
     </row>
     <row r="274" spans="1:12" ht="13.2">
       <c r="A274" s="36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C274" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D274" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D274" s="32" t="s">
-        <v>32</v>
-      </c>
       <c r="E274" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F274">
         <v>161</v>
@@ -12963,19 +13024,19 @@
     </row>
     <row r="275" spans="1:12" ht="13.2">
       <c r="A275" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B275" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C275" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="B275" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C275" s="31" t="s">
-        <v>342</v>
-      </c>
       <c r="D275" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E275" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F275">
         <v>161</v>
@@ -12999,19 +13060,19 @@
     </row>
     <row r="276" spans="1:12" ht="13.2">
       <c r="A276" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="B276" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C276" s="31" t="s">
         <v>616</v>
       </c>
-      <c r="B276" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C276" s="31" t="s">
-        <v>617</v>
-      </c>
       <c r="D276" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E276" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F276">
         <v>71</v>
@@ -13032,24 +13093,24 @@
         <v>0</v>
       </c>
       <c r="L276" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" ht="13.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="15.6">
       <c r="A277" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B277" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C277" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B277" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C277" s="31" t="s">
-        <v>134</v>
-      </c>
       <c r="D277" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E277" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F277">
         <v>161</v>
@@ -13073,19 +13134,19 @@
     </row>
     <row r="278" spans="1:12" ht="13.2">
       <c r="A278" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="B278" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C278" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="B278" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C278" s="31" t="s">
-        <v>619</v>
-      </c>
       <c r="D278" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E278" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F278">
         <v>161</v>
@@ -13106,24 +13167,24 @@
         <v>0</v>
       </c>
       <c r="L278" s="35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="13.2">
       <c r="A279" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B279" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C279" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D279" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E279" s="31" t="s">
         <v>363</v>
-      </c>
-      <c r="B279" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C279" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D279" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E279" s="31" t="s">
-        <v>364</v>
       </c>
       <c r="F279">
         <v>161</v>
@@ -13147,19 +13208,19 @@
     </row>
     <row r="280" spans="1:12" ht="13.2">
       <c r="A280" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="B280" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C280" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="B280" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C280" s="31" t="s">
-        <v>464</v>
-      </c>
       <c r="D280" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E280" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F280">
         <v>161</v>
@@ -13181,21 +13242,21 @@
       </c>
       <c r="L280" s="35"/>
     </row>
-    <row r="281" spans="1:12" ht="13.2">
+    <row r="281" spans="1:12" ht="15.6">
       <c r="A281" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B281" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C281" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="B281" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C281" s="31" t="s">
-        <v>402</v>
-      </c>
       <c r="D281" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E281" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F281">
         <v>161</v>
@@ -13219,19 +13280,19 @@
     </row>
     <row r="282" spans="1:12" ht="13.2">
       <c r="A282" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B282" s="31" t="s">
+      <c r="C282" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C282" s="31" t="s">
+      <c r="D282" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D282" s="32" t="s">
+      <c r="E282" s="31" t="s">
         <v>27</v>
-      </c>
-      <c r="E282" s="31" t="s">
-        <v>28</v>
       </c>
       <c r="F282">
         <v>161</v>
@@ -13255,19 +13316,19 @@
     </row>
     <row r="283" spans="1:12" ht="13.2">
       <c r="A283" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="B283" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C283" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="B283" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C283" s="31" t="s">
-        <v>496</v>
-      </c>
       <c r="D283" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E283" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F283">
         <v>161</v>
@@ -13291,19 +13352,19 @@
     </row>
     <row r="284" spans="1:12" ht="13.2">
       <c r="A284" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="B284" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C284" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="B284" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C284" s="31" t="s">
-        <v>301</v>
-      </c>
       <c r="D284" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E284" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F284">
         <v>161</v>
@@ -13327,16 +13388,16 @@
     </row>
     <row r="285" spans="1:12" ht="13.2">
       <c r="A285" s="36" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C285" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285" s="32" t="s">
         <v>31</v>
-      </c>
-      <c r="D285" s="32" t="s">
-        <v>32</v>
       </c>
       <c r="E285" s="31"/>
       <c r="F285">
@@ -13358,24 +13419,24 @@
         <v>0</v>
       </c>
       <c r="L285" s="35" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="13.2">
       <c r="A286" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B286" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B286" s="31" t="s">
+      <c r="C286" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C286" s="31" t="s">
+      <c r="D286" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E286" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="D286" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E286" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="F286">
         <v>161</v>
@@ -13397,21 +13458,21 @@
       </c>
       <c r="L286" s="35"/>
     </row>
-    <row r="287" spans="1:12" ht="13.2">
+    <row r="287" spans="1:12" ht="15.6">
       <c r="A287" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B287" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="C287" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B287" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C287" s="31" t="s">
-        <v>74</v>
-      </c>
       <c r="D287" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E287" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F287">
         <v>161</v>
@@ -13435,19 +13496,19 @@
     </row>
     <row r="288" spans="1:12" ht="13.2">
       <c r="A288" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="B288" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C288" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="B288" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C288" s="31" t="s">
-        <v>466</v>
-      </c>
       <c r="D288" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E288" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F288">
         <v>161</v>
@@ -13471,19 +13532,19 @@
     </row>
     <row r="289" spans="1:12" ht="13.2">
       <c r="A289" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B289" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C289" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="B289" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C289" s="31" t="s">
-        <v>366</v>
-      </c>
       <c r="D289" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E289" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F289">
         <v>161</v>
@@ -13507,19 +13568,19 @@
     </row>
     <row r="290" spans="1:12" ht="13.2">
       <c r="A290" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="B290" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C290" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="B290" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C290" s="31" t="s">
-        <v>540</v>
-      </c>
       <c r="D290" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E290" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F290">
         <v>161</v>
@@ -13543,19 +13604,19 @@
     </row>
     <row r="291" spans="1:12" ht="13.2">
       <c r="A291" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B291" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C291" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="B291" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C291" s="31" t="s">
-        <v>241</v>
-      </c>
       <c r="D291" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E291" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F291">
         <v>161</v>
@@ -13579,19 +13640,19 @@
     </row>
     <row r="292" spans="1:12" ht="13.2">
       <c r="A292" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B292" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C292" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B292" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C292" s="31" t="s">
-        <v>243</v>
-      </c>
       <c r="D292" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E292" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F292">
         <v>161</v>
@@ -13615,19 +13676,19 @@
     </row>
     <row r="293" spans="1:12" ht="13.2">
       <c r="A293" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B293" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C293" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B293" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C293" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="D293" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E293" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F293">
         <v>161</v>
@@ -13651,19 +13712,19 @@
     </row>
     <row r="294" spans="1:12" ht="13.2">
       <c r="A294" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="B294" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C294" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="B294" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C294" s="39" t="s">
-        <v>404</v>
-      </c>
       <c r="D294" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E294" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F294">
         <v>161</v>
@@ -13689,7 +13750,7 @@
       <c r="A295" s="44"/>
       <c r="B295" s="45"/>
       <c r="C295" s="46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D295" s="44"/>
       <c r="E295" s="45"/>
@@ -13703,17 +13764,17 @@
     </row>
     <row r="296" spans="1:12" ht="15.6">
       <c r="A296" s="51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B296" s="26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C296" s="26"/>
       <c r="D296" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E296" s="26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F296" s="28">
         <v>85</v>
@@ -13734,22 +13795,22 @@
         <v>0.06</v>
       </c>
       <c r="L296" s="29" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="297" spans="1:12" ht="13.2">
       <c r="A297" s="36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B297" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C297" s="31"/>
       <c r="D297" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E297" s="31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F297" s="33">
         <v>86</v>
@@ -13770,22 +13831,22 @@
         <v>0.02</v>
       </c>
       <c r="L297" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="298" spans="1:12" ht="13.2">
       <c r="A298" s="36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C298" s="31"/>
       <c r="D298" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E298" s="31" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F298" s="33">
         <v>145</v>
@@ -13806,19 +13867,19 @@
         <v>0</v>
       </c>
       <c r="L298" s="35" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" ht="15.6">
+      <c r="A299" s="36" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" ht="13.2">
-      <c r="A299" s="36" t="s">
-        <v>633</v>
-      </c>
-      <c r="B299" s="31" t="s">
-        <v>124</v>
+      <c r="B299" s="53" t="s">
+        <v>690</v>
       </c>
       <c r="C299" s="31"/>
       <c r="D299" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E299" s="31"/>
       <c r="F299" s="33">
@@ -13840,22 +13901,22 @@
         <v>0.17</v>
       </c>
       <c r="L299" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="300" spans="1:12" ht="13.2">
       <c r="A300" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="B300" s="31" t="s">
         <v>635</v>
-      </c>
-      <c r="B300" s="31" t="s">
-        <v>636</v>
       </c>
       <c r="C300" s="31"/>
       <c r="D300" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E300" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F300" s="33">
         <v>40</v>
@@ -13876,22 +13937,22 @@
         <v>0.08</v>
       </c>
       <c r="L300" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="301" spans="1:12" ht="13.2">
       <c r="A301" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B301" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C301" s="31"/>
       <c r="D301" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E301" s="31" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F301" s="33">
         <v>92</v>
@@ -13912,22 +13973,22 @@
         <v>0.01</v>
       </c>
       <c r="L301" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="302" spans="1:12" ht="13.2">
       <c r="A302" s="36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B302" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C302" s="31"/>
       <c r="D302" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E302" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="E302" s="31" t="s">
-        <v>33</v>
       </c>
       <c r="F302" s="33">
         <v>49</v>
@@ -13948,22 +14009,22 @@
         <v>0</v>
       </c>
       <c r="L302" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="303" spans="1:12" ht="13.2">
       <c r="A303" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B303" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C303" s="31"/>
       <c r="D303" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E303" s="31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F303" s="33">
         <v>86</v>
@@ -13984,22 +14045,22 @@
         <v>0</v>
       </c>
       <c r="L303" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="304" spans="1:12" ht="13.2">
       <c r="A304" s="36" t="s">
+        <v>644</v>
+      </c>
+      <c r="B304" s="31" t="s">
         <v>645</v>
-      </c>
-      <c r="B304" s="31" t="s">
-        <v>646</v>
       </c>
       <c r="C304" s="31"/>
       <c r="D304" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E304" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F304" s="33">
         <v>81</v>
@@ -14020,22 +14081,22 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L304" s="35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="305" spans="1:12" ht="13.2">
       <c r="A305" s="36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B305" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C305" s="31"/>
       <c r="D305" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E305" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F305" s="33">
         <v>81</v>
@@ -14056,22 +14117,22 @@
         <v>0.05</v>
       </c>
       <c r="L305" s="35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="306" spans="1:12" ht="13.2">
       <c r="A306" s="36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B306" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C306" s="31"/>
       <c r="D306" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E306" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F306" s="33">
         <v>74</v>
@@ -14092,22 +14153,22 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="L306" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="307" spans="1:12" ht="13.2">
       <c r="A307" s="36" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B307" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C307" s="31"/>
       <c r="D307" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E307" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F307" s="33">
         <v>81</v>
@@ -14128,22 +14189,22 @@
         <v>0</v>
       </c>
       <c r="L307" s="35" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" ht="13.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="15.6">
       <c r="A308" s="36" t="s">
-        <v>653</v>
-      </c>
-      <c r="B308" s="31" t="s">
-        <v>181</v>
+        <v>652</v>
+      </c>
+      <c r="B308" s="55" t="s">
+        <v>687</v>
       </c>
       <c r="C308" s="31"/>
       <c r="D308" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E308" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F308" s="33">
         <v>46</v>
@@ -14164,22 +14225,22 @@
         <v>0</v>
       </c>
       <c r="L308" s="35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="309" spans="1:12" ht="13.2">
       <c r="A309" s="36" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B309" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C309" s="31"/>
       <c r="D309" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E309" s="31" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F309" s="33">
         <v>86</v>
@@ -14200,22 +14261,22 @@
         <v>0</v>
       </c>
       <c r="L309" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="13.2">
       <c r="A310" s="36" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B310" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C310" s="31"/>
       <c r="D310" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E310" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F310" s="33">
         <v>138</v>
@@ -14236,22 +14297,22 @@
         <v>0.13</v>
       </c>
       <c r="L310" s="35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="311" spans="1:12" ht="13.2">
       <c r="A311" s="36" t="s">
+        <v>658</v>
+      </c>
+      <c r="B311" s="31" t="s">
         <v>659</v>
-      </c>
-      <c r="B311" s="31" t="s">
-        <v>660</v>
       </c>
       <c r="C311" s="31"/>
       <c r="D311" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E311" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F311" s="33">
         <v>101</v>
@@ -14272,22 +14333,22 @@
         <v>0.02</v>
       </c>
       <c r="L311" s="35" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="15.6">
+      <c r="A312" s="36" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" ht="13.2">
-      <c r="A312" s="36" t="s">
-        <v>663</v>
-      </c>
-      <c r="B312" s="31" t="s">
-        <v>382</v>
+      <c r="B312" s="55" t="s">
+        <v>692</v>
       </c>
       <c r="C312" s="31"/>
       <c r="D312" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E312" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F312" s="33">
         <v>73</v>
@@ -14308,22 +14369,22 @@
         <v>0.03</v>
       </c>
       <c r="L312" s="35" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="313" spans="1:12" ht="13.2">
       <c r="A313" s="36" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B313" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C313" s="31"/>
       <c r="D313" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E313" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F313" s="33">
         <v>111</v>
@@ -14344,22 +14405,22 @@
         <v>0.17</v>
       </c>
       <c r="L313" s="35" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="314" spans="1:12" ht="13.2">
       <c r="A314" s="36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B314" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C314" s="31"/>
       <c r="D314" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E314" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F314" s="33">
         <v>84</v>
@@ -14380,22 +14441,22 @@
         <v>0.02</v>
       </c>
       <c r="L314" s="35" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="315" spans="1:12" ht="13.2">
       <c r="A315" s="36" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B315" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C315" s="31"/>
       <c r="D315" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E315" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F315" s="33">
         <v>121</v>
@@ -14416,22 +14477,22 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L315" s="35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="13.2">
       <c r="A316" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B316" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C316" s="31"/>
       <c r="D316" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E316" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F316" s="33">
         <v>121</v>
@@ -14452,22 +14513,22 @@
         <v>0.46</v>
       </c>
       <c r="L316" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="13.2">
       <c r="A317" s="36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B317" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C317" s="31"/>
       <c r="D317" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E317" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F317" s="33">
         <v>86</v>
@@ -14488,22 +14549,22 @@
         <v>0.2</v>
       </c>
       <c r="L317" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="13.2">
       <c r="A318" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B318" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C318" s="31"/>
       <c r="D318" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E318" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F318" s="33">
         <v>127</v>
@@ -14524,22 +14585,22 @@
         <v>0.44</v>
       </c>
       <c r="L318" s="35" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="319" spans="1:12" ht="13.2">
       <c r="A319" s="36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B319" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C319" s="31"/>
       <c r="D319" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E319" s="31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F319" s="33">
         <v>70</v>
@@ -14560,22 +14621,22 @@
         <v>0.01</v>
       </c>
       <c r="L319" s="35" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="320" spans="1:12" ht="13.2">
       <c r="A320" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B320" s="39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C320" s="39"/>
       <c r="D320" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E320" s="39" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F320" s="41">
         <v>137</v>
@@ -14596,24 +14657,24 @@
         <v>0.09</v>
       </c>
       <c r="L320" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="321" spans="1:12" ht="15.75" customHeight="1">
       <c r="A321" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B321" s="53" t="s">
+        <v>689</v>
+      </c>
+      <c r="C321" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D321" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E321" s="31" t="s">
         <v>377</v>
-      </c>
-      <c r="B321" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C321" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D321" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E321" s="31" t="s">
-        <v>378</v>
       </c>
       <c r="F321" s="33">
         <v>156</v>
@@ -14634,24 +14695,24 @@
         <v>0.04</v>
       </c>
       <c r="L321" s="52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="322" spans="1:12" ht="15.75" customHeight="1">
       <c r="A322" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B322" s="53" t="s">
+        <v>689</v>
+      </c>
+      <c r="C322" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D322" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E322" s="31" t="s">
         <v>176</v>
-      </c>
-      <c r="B322" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C322" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D322" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E322" s="31" t="s">
-        <v>177</v>
       </c>
       <c r="F322" s="33">
         <v>156</v>
@@ -14672,24 +14733,24 @@
         <v>0.09</v>
       </c>
       <c r="L322" s="52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="323" spans="1:12" ht="15.75" customHeight="1">
       <c r="A323" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B323" s="53" t="s">
+        <v>689</v>
+      </c>
+      <c r="C323" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D323" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E323" s="31" t="s">
         <v>218</v>
-      </c>
-      <c r="B323" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C323" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D323" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E323" s="31" t="s">
-        <v>219</v>
       </c>
       <c r="F323" s="33">
         <v>156</v>
@@ -14710,24 +14771,24 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="L323" s="52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="324" spans="1:12" ht="15.75" customHeight="1">
       <c r="A324" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="B324" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="C324" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D324" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E324" s="31" t="s">
         <v>429</v>
-      </c>
-      <c r="B324" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C324" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D324" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E324" s="31" t="s">
-        <v>430</v>
       </c>
       <c r="F324" s="33">
         <v>156</v>
@@ -14748,24 +14809,24 @@
         <v>0.03</v>
       </c>
       <c r="L324" s="52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="325" spans="1:12" ht="15.75" customHeight="1">
       <c r="A325" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B325" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B325" s="31" t="s">
+      <c r="C325" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D325" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E325" s="31" t="s">
         <v>181</v>
-      </c>
-      <c r="C325" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D325" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E325" s="31" t="s">
-        <v>182</v>
       </c>
       <c r="F325" s="33">
         <v>156</v>
@@ -14786,7 +14847,7 @@
         <v>0.09</v>
       </c>
       <c r="L325" s="52" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -14796,7 +14857,7 @@
   <customSheetViews>
     <customSheetView guid="{3247C7DD-67C9-436B-8D02-C8F931F8F10D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:L325" xr:uid="{A3805B72-3696-4E4E-9273-E7BE34969C05}">
+      <autoFilter ref="A4:L325" xr:uid="{C6E23E28-8F27-4756-B01D-1C3D6CCE0681}">
         <filterColumn colId="11">
           <filters>
             <filter val="2017-02-09 공직선거법 위반으로 인한 당선무효"/>
